--- a/StructureDefinition-profile-StructureMap.xlsx
+++ b/StructureDefinition-profile-StructureMap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7963972-06:00</t>
+    <t>2026-02-09T22:05:43.3389349-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -423,38 +423,106 @@
     <t>StructureMap.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>StructureMap.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.versionAlgorithm[x]` is will have a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>StructureMap.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureMap.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.copyrightLabel` is will have a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+  </si>
+  <si>
+    <t>StructureMap.extension:const</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.const|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureMap.const from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Definition of a constant value used in the map rules.</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.const` is will have a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+  </si>
+  <si>
+    <t>StructureMap.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>StructureMap.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -823,6 +891,9 @@
     <t>StructureMap.structure.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1301,17 +1372,10 @@
     <t>StructureMap.group.rule.target.parameter.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>StructureMap.group.rule.target.parameter.extension:parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group.rule.target.parameter|0.0.1-snapshot-3}
@@ -1321,8 +1385,7 @@
     <t>Cross-version extension for StructureMap.group.rule.target.parameter from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `StructureMap.group.rule.target.parameter` is mapped to FHIR R4 element `StructureMap.group.rule.target.parameter`.</t>
   </si>
   <si>
     <t>StructureMap.group.rule.target.parameter.modifierExtension</t>
@@ -1398,6 +1461,9 @@
     <t>StructureMap.group.rule.dependent.variable.extension</t>
   </si>
   <si>
+    <t>StructureMap.group.rule.dependent.variable.extension:parameter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group.rule.dependent.parameter|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1406,6 +1472,9 @@
   </si>
   <si>
     <t>Parameter to pass to the rule or group.</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.group.rule.dependent.parameter` is mapped to FHIR R4 element `StructureMap.group.rule.dependent.variable`.</t>
   </si>
   <si>
     <t>StructureMap.group.rule.dependent.variable.value</t>
@@ -1730,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1739,9 +1808,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.46875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2705,7 +2774,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2724,17 +2793,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2771,16 +2838,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2798,7 +2863,7 @@
         <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -2815,43 +2880,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2899,7 +2964,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2908,13 +2973,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -2928,18 +2993,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>87</v>
@@ -2951,23 +3018,21 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3015,28 +3080,28 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3047,9 +3112,11 @@
         <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3067,23 +3134,21 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3131,7 +3196,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3140,64 +3205,66 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3245,28 +3312,28 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3274,14 +3341,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3300,19 +3367,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3361,7 +3428,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>87</v>
@@ -3370,7 +3437,7 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
@@ -3379,10 +3446,10 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3404,7 +3471,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3416,18 +3483,20 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3481,7 +3550,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3493,21 +3562,21 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3515,7 +3584,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
@@ -3524,22 +3593,22 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3565,13 +3634,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3589,10 +3658,10 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>87</v>
@@ -3607,10 +3676,10 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3618,10 +3687,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3629,7 +3698,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
@@ -3644,7 +3713,7 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>189</v>
@@ -3653,10 +3722,10 @@
         <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3705,16 +3774,16 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
@@ -3723,10 +3792,10 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3741,7 +3810,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3760,16 +3829,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3837,10 +3906,10 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -3848,10 +3917,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3859,7 +3928,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>87</v>
@@ -3868,26 +3937,24 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3911,13 +3978,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -3935,10 +4002,10 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>87</v>
@@ -3953,10 +4020,10 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -3964,10 +4031,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3978,7 +4045,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3990,18 +4057,20 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4049,13 +4118,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4067,10 +4136,10 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4085,7 +4154,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4101,19 +4170,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4181,10 +4250,10 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4192,10 +4261,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4206,7 +4275,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4218,19 +4287,19 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4279,13 +4348,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4297,10 +4366,10 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4308,10 +4377,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4334,16 +4403,16 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4369,13 +4438,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4393,7 +4462,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4411,7 +4480,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4422,10 +4491,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4448,7 +4517,7 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>238</v>
@@ -4507,7 +4576,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4528,29 +4597,29 @@
         <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4559,18 +4628,20 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>247</v>
       </c>
@@ -4621,13 +4692,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4645,7 +4716,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4711,13 +4782,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4753,7 +4824,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4764,10 +4835,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4790,15 +4861,17 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4847,7 +4920,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4859,38 +4932,38 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4902,18 +4975,18 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4961,43 +5034,43 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5010,26 +5083,24 @@
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5077,7 +5148,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5089,10 +5160,10 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5106,10 +5177,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5117,7 +5188,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
@@ -5129,16 +5200,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5189,10 +5260,10 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
@@ -5201,10 +5272,10 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5218,21 +5289,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5241,18 +5312,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5277,13 +5350,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5301,22 +5374,22 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -5330,44 +5403,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5415,22 +5490,22 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5444,10 +5519,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5455,7 +5530,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -5467,16 +5542,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5527,10 +5602,10 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
@@ -5556,10 +5631,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5567,10 +5642,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5582,13 +5657,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5615,13 +5690,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5639,13 +5714,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -5668,10 +5743,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5679,10 +5754,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5694,15 +5769,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5751,13 +5828,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -5780,10 +5857,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5806,13 +5883,13 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5863,7 +5940,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5875,10 +5952,10 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -5892,14 +5969,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5915,20 +5992,18 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5977,7 +6052,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5989,10 +6064,10 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6006,18 +6081,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6026,26 +6101,22 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6093,10 +6164,10 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6105,10 +6176,10 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6122,10 +6193,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6133,7 +6204,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>87</v>
@@ -6145,16 +6216,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6205,10 +6276,10 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>87</v>
@@ -6217,10 +6288,10 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6234,21 +6305,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6257,18 +6328,20 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6317,22 +6390,22 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6346,44 +6419,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6407,13 +6482,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6431,22 +6506,22 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6460,10 +6535,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6471,7 +6546,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
@@ -6486,13 +6561,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6543,10 +6618,10 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>87</v>
@@ -6572,10 +6647,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6583,10 +6658,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6598,17 +6673,15 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6657,13 +6730,13 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -6686,10 +6759,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6697,7 +6770,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
@@ -6709,18 +6782,20 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6745,13 +6820,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -6769,10 +6844,10 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>87</v>
@@ -6781,10 +6856,10 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -6798,21 +6873,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -6821,20 +6896,18 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6883,22 +6956,22 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -6912,18 +6985,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6932,26 +7005,24 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -6999,10 +7070,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7011,10 +7082,10 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7028,10 +7099,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7039,7 +7110,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>87</v>
@@ -7051,16 +7122,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7111,10 +7182,10 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>87</v>
@@ -7123,10 +7194,10 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7140,21 +7211,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7163,18 +7234,20 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7223,22 +7296,22 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7252,42 +7325,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7311,13 +7388,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7335,22 +7412,22 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7364,10 +7441,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7375,7 +7452,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>87</v>
@@ -7387,16 +7464,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7447,10 +7524,10 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>87</v>
@@ -7476,10 +7553,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7487,10 +7564,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7502,13 +7579,13 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7559,13 +7636,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7588,10 +7665,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7599,7 +7676,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7611,16 +7688,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7647,13 +7724,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7671,10 +7748,10 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
@@ -7683,10 +7760,10 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -7700,21 +7777,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -7726,17 +7803,15 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7785,22 +7860,22 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7814,18 +7889,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -7834,26 +7909,22 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -7901,10 +7972,10 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -7913,10 +7984,10 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -7930,10 +8001,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7941,7 +8012,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
@@ -7953,16 +8024,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8013,10 +8084,10 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>87</v>
@@ -8025,10 +8096,10 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8042,18 +8113,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8065,18 +8136,20 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8125,10 +8198,10 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8137,10 +8210,10 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8154,42 +8227,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8237,22 +8314,22 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8266,21 +8343,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8289,20 +8366,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8351,22 +8426,22 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8380,18 +8455,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8400,26 +8475,22 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8467,10 +8538,10 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8479,10 +8550,10 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8496,10 +8567,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8507,7 +8578,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>87</v>
@@ -8519,16 +8590,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8579,10 +8650,10 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>87</v>
@@ -8591,10 +8662,10 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8608,21 +8679,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8631,18 +8702,20 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8691,22 +8764,22 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -8720,42 +8793,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8803,22 +8880,22 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -8832,10 +8909,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8843,7 +8920,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -8858,13 +8935,13 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8915,10 +8992,10 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>87</v>
@@ -8944,10 +9021,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8970,17 +9047,15 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9029,7 +9104,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9058,10 +9133,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9084,13 +9159,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9141,7 +9216,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9170,10 +9245,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9196,13 +9271,13 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9229,13 +9304,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9253,7 +9328,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9282,10 +9357,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9308,15 +9383,17 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9365,7 +9442,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9394,10 +9471,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9420,13 +9497,13 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9477,7 +9554,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9506,10 +9583,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9532,13 +9609,13 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9565,13 +9642,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -9589,7 +9666,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9618,10 +9695,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9644,17 +9721,15 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -9703,7 +9778,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9732,10 +9807,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9746,7 +9821,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -9758,13 +9833,13 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9815,19 +9890,19 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>383</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -9844,10 +9919,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9867,16 +9942,16 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>255</v>
+        <v>396</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9927,7 +10002,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>257</v>
+        <v>395</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9939,10 +10014,10 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -9956,21 +10031,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -9979,19 +10054,19 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>136</v>
+        <v>401</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10041,22 +10116,22 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>260</v>
+        <v>398</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10070,14 +10145,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10090,26 +10165,22 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>263</v>
+        <v>403</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10157,7 +10228,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10169,10 +10240,10 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>138</v>
+        <v>405</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10186,10 +10257,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10209,16 +10280,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10269,7 +10340,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>387</v>
+        <v>278</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10281,10 +10352,10 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10298,21 +10369,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10321,18 +10392,20 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10357,13 +10430,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -10381,22 +10454,22 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10410,42 +10483,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10493,22 +10570,22 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -10522,10 +10599,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10551,10 +10628,10 @@
         <v>89</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10605,7 +10682,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10634,10 +10711,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10648,7 +10725,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -10663,10 +10740,10 @@
         <v>107</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10693,13 +10770,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -10717,13 +10794,13 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
@@ -10746,10 +10823,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10772,13 +10849,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10829,7 +10906,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10858,10 +10935,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10884,13 +10961,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10917,13 +10994,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -10941,7 +11018,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10970,10 +11047,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10996,13 +11073,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11029,13 +11106,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11053,7 +11130,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11082,10 +11159,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11105,16 +11182,16 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>256</v>
+        <v>427</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11165,7 +11242,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>257</v>
+        <v>425</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11177,10 +11254,10 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>80</v>
@@ -11194,10 +11271,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11205,10 +11282,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11217,16 +11294,16 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11253,41 +11330,43 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AC84" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>260</v>
+        <v>428</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -11304,10 +11383,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11327,16 +11406,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>420</v>
+        <v>271</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11387,7 +11466,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>260</v>
+        <v>433</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11396,10 +11475,10 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -11416,46 +11495,42 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -11503,22 +11578,22 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
@@ -11532,10 +11607,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11543,10 +11618,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -11555,16 +11630,16 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>426</v>
+        <v>133</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>427</v>
+        <v>134</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11603,31 +11678,29 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>424</v>
+        <v>282</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -11644,12 +11717,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>80</v>
       </c>
@@ -11667,18 +11742,20 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -11727,7 +11804,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>428</v>
+        <v>282</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11736,10 +11813,10 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -11756,14 +11833,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11776,22 +11853,26 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>432</v>
+        <v>285</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -11839,7 +11920,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>431</v>
+        <v>287</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11851,10 +11932,10 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -11868,10 +11949,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11879,7 +11960,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>87</v>
@@ -11891,16 +11972,16 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>161</v>
+        <v>445</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>255</v>
+        <v>446</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11951,10 +12032,10 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>257</v>
+        <v>444</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>87</v>
@@ -11963,10 +12044,10 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -11980,14 +12061,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12003,20 +12084,18 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>134</v>
+        <v>449</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12065,7 +12144,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12077,10 +12156,10 @@
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -12094,14 +12173,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12114,26 +12193,22 @@
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12181,7 +12256,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>265</v>
+        <v>451</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12193,10 +12268,10 @@
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -12210,10 +12285,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12221,7 +12296,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>87</v>
@@ -12233,16 +12308,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>438</v>
+        <v>276</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>439</v>
+        <v>277</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12293,10 +12368,10 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>437</v>
+        <v>278</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>87</v>
@@ -12305,10 +12380,10 @@
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -12322,18 +12397,18 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -12345,18 +12420,20 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -12405,10 +12482,10 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>440</v>
+        <v>282</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -12417,10 +12494,10 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -12434,42 +12511,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>444</v>
+        <v>285</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
       </c>
@@ -12517,22 +12598,22 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -12546,10 +12627,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12560,7 +12641,7 @@
         <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -12569,16 +12650,16 @@
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12617,29 +12698,31 @@
         <v>80</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AC96" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>260</v>
+        <v>457</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -12656,10 +12739,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12679,16 +12762,16 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>447</v>
+        <v>182</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12739,19 +12822,19 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -12768,10 +12851,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12794,13 +12877,13 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12824,7 +12907,7 @@
         <v>80</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>80</v>
@@ -12851,7 +12934,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>454</v>
+        <v>278</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -12880,10 +12963,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12891,10 +12974,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -12906,13 +12989,13 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>324</v>
+        <v>133</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12951,42 +13034,380 @@
         <v>80</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>455</v>
+        <v>282</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-StructureMap.xlsx
+++ b/StructureDefinition-profile-StructureMap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3389349-06:00</t>
+    <t>2026-02-17T14:42:26.9193569-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,7 +463,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `StructureMap.versionAlgorithm[x]` is will have a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+    <t>Element `StructureMap.versionAlgorithm[x]` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -486,7 +486,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `StructureMap.copyrightLabel` is will have a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+    <t>Element `StructureMap.copyrightLabel` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
   </si>
   <si>
     <t>StructureMap.extension:const</t>
@@ -505,7 +505,7 @@
     <t>Definition of a constant value used in the map rules.</t>
   </si>
   <si>
-    <t>Element `StructureMap.const` is will have a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+    <t>Element `StructureMap.const` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
   </si>
   <si>
     <t>StructureMap.modifierExtension</t>
@@ -891,13 +891,23 @@
     <t>StructureMap.structure.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>StructureMap.structure.extension:structure</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.structure|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureMap.structure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.structure` has is mapped to FHIR R4 element `StructureMap.structure`, but has no comparisons.</t>
   </si>
   <si>
     <t>StructureMap.structure.modifierExtension</t>
@@ -991,6 +1001,25 @@
     <t>StructureMap.group.extension</t>
   </si>
   <si>
+    <t>StructureMap.group.extension:group</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureMap.group from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Organizes the mapping into managable chunks for human review/ease of maintenance.</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.group` has is mapped to FHIR R4 element `StructureMap.group`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>StructureMap.group.modifierExtension</t>
   </si>
   <si>
@@ -1055,6 +1084,12 @@
   </si>
   <si>
     <t>StructureMap.group.input.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>StructureMap.group.input.modifierExtension</t>
@@ -1372,22 +1407,6 @@
     <t>StructureMap.group.rule.target.parameter.extension</t>
   </si>
   <si>
-    <t>StructureMap.group.rule.target.parameter.extension:parameter</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group.rule.target.parameter|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureMap.group.rule.target.parameter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `StructureMap.group.rule.target.parameter` is mapped to FHIR R4 element `StructureMap.group.rule.target.parameter`.</t>
-  </si>
-  <si>
     <t>StructureMap.group.rule.target.parameter.modifierExtension</t>
   </si>
   <si>
@@ -1447,49 +1466,6 @@
   </si>
   <si>
     <t>Variable to pass to the rule or group.</t>
-  </si>
-  <si>
-    <t>StructureMap.group.rule.dependent.variable.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>StructureMap.group.rule.dependent.variable.extension</t>
-  </si>
-  <si>
-    <t>StructureMap.group.rule.dependent.variable.extension:parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group.rule.dependent.parameter|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureMap.group.rule.dependent.parameter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Parameter to pass to the rule or group.</t>
-  </si>
-  <si>
-    <t>Element `StructureMap.group.rule.dependent.parameter` is mapped to FHIR R4 element `StructureMap.group.rule.dependent.variable`.</t>
-  </si>
-  <si>
-    <t>StructureMap.group.rule.dependent.variable.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>StructureMap.group.rule.documentation</t>
@@ -1799,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1808,7 +1784,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.46875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5296,7 +5272,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5318,14 +5294,12 @@
         <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5362,19 +5336,17 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5389,7 +5361,7 @@
         <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -5403,14 +5375,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5423,26 +5397,24 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5490,7 +5462,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5499,13 +5471,13 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5519,42 +5491,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5602,22 +5578,22 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5631,10 +5607,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5657,7 +5633,7 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>293</v>
@@ -5690,13 +5666,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5714,7 +5690,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5743,10 +5719,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5754,7 +5730,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>87</v>
@@ -5769,17 +5745,15 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5804,13 +5778,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5828,10 +5802,10 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>87</v>
@@ -5857,10 +5831,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5880,18 +5854,20 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5940,7 +5916,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5983,7 +5959,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -5992,16 +5968,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6058,7 +6034,7 @@
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6081,10 +6057,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6092,7 +6068,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6107,7 +6083,7 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>308</v>
@@ -6164,10 +6140,10 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6204,10 +6180,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6216,16 +6192,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6276,22 +6252,22 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6305,21 +6281,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6331,17 +6307,15 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6390,19 +6364,19 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>85</v>
@@ -6419,18 +6393,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6439,26 +6413,22 @@
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6494,19 +6464,17 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6521,7 +6489,7 @@
         <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6535,12 +6503,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6549,7 +6519,7 @@
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6558,18 +6528,20 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>89</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6618,19 +6590,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6647,42 +6619,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6730,22 +6706,22 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6759,10 +6735,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6785,17 +6761,15 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6820,13 +6794,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -6844,7 +6818,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6899,7 +6873,7 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>326</v>
@@ -6999,7 +6973,7 @@
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7011,7 +6985,7 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>329</v>
@@ -7046,13 +7020,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7076,7 +7050,7 @@
         <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7099,10 +7073,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7122,16 +7096,16 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>182</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7182,7 +7156,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7194,10 +7168,10 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7211,18 +7185,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7234,19 +7208,19 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7296,10 +7270,10 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7308,10 +7282,10 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7325,46 +7299,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7412,22 +7382,22 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7441,21 +7411,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7464,18 +7434,20 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7524,22 +7496,22 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7553,42 +7525,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7636,22 +7612,22 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7665,10 +7641,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7691,13 +7667,13 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7724,13 +7700,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7748,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -7777,10 +7753,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7800,16 +7776,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7860,7 +7836,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7889,10 +7865,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7903,7 +7879,7 @@
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -7915,13 +7891,13 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7948,13 +7924,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -7972,13 +7948,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8001,10 +7977,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8030,10 +8006,10 @@
         <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8084,7 +8060,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8096,10 +8072,10 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8113,18 +8089,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8136,20 +8112,18 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8198,10 +8172,10 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8210,10 +8184,10 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8227,46 +8201,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8314,22 +8284,22 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8343,21 +8313,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8366,18 +8336,20 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8426,22 +8398,22 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8455,18 +8427,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8475,22 +8447,26 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8538,10 +8514,10 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8550,10 +8526,10 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8567,10 +8543,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8578,7 +8554,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>87</v>
@@ -8590,16 +8566,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>276</v>
+        <v>366</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8650,10 +8626,10 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>87</v>
@@ -8662,10 +8638,10 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8679,18 +8655,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8702,20 +8678,18 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8764,10 +8738,10 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8776,10 +8750,10 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -8793,46 +8767,42 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8880,22 +8850,22 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -8909,21 +8879,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -8932,18 +8902,20 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -8992,22 +8964,22 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9021,42 +8993,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9104,22 +9080,22 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9133,10 +9109,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9144,7 +9120,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9159,13 +9135,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9216,10 +9192,10 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -9245,10 +9221,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9271,13 +9247,13 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9328,7 +9304,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9357,10 +9333,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9383,17 +9359,15 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>377</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9442,7 +9416,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9471,10 +9445,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9500,10 +9474,10 @@
         <v>182</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9554,7 +9528,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9583,10 +9557,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9609,15 +9583,17 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9642,31 +9618,31 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9695,10 +9671,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9721,13 +9697,13 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9778,7 +9754,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9807,10 +9783,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9833,13 +9809,13 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9866,13 +9842,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -9890,7 +9866,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9919,10 +9895,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9945,13 +9921,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10002,7 +9978,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10031,10 +10007,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10060,14 +10036,12 @@
         <v>182</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10116,7 +10090,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10145,10 +10119,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10159,7 +10133,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10171,13 +10145,13 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10228,19 +10202,19 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>405</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -10257,10 +10231,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10280,18 +10254,20 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>182</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>276</v>
+        <v>410</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10340,7 +10316,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10352,10 +10328,10 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10369,14 +10345,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10392,20 +10368,18 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10454,7 +10428,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>282</v>
+        <v>413</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10466,10 +10440,10 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10483,46 +10457,42 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10570,22 +10540,22 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -10599,21 +10569,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -10622,18 +10592,20 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -10682,22 +10654,22 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -10711,42 +10683,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>411</v>
+        <v>288</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -10770,13 +10746,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -10794,22 +10770,22 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -10823,10 +10799,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10849,13 +10825,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10906,7 +10882,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10935,10 +10911,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10961,13 +10937,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10994,13 +10970,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11018,7 +10994,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11047,10 +11023,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11061,7 +11037,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11073,13 +11049,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11106,13 +11082,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11130,13 +11106,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -11159,10 +11135,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11188,10 +11164,10 @@
         <v>89</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11242,7 +11218,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11271,10 +11247,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11285,7 +11261,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11300,10 +11276,10 @@
         <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11333,34 +11309,34 @@
         <v>203</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
@@ -11383,10 +11359,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11397,7 +11373,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -11409,13 +11385,13 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11466,13 +11442,13 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
@@ -11495,10 +11471,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11518,16 +11494,16 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>276</v>
+        <v>440</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11554,13 +11530,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -11578,7 +11554,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>278</v>
+        <v>439</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11590,10 +11566,10 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
@@ -11607,10 +11583,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11630,16 +11606,16 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>134</v>
+        <v>446</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11678,17 +11654,19 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC87" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>282</v>
+        <v>444</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11700,7 +11678,7 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -11717,14 +11695,12 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
         <v>80</v>
       </c>
@@ -11733,7 +11709,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -11745,17 +11721,15 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>440</v>
+        <v>182</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>441</v>
+        <v>276</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -11804,22 +11778,22 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -11833,14 +11807,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11853,26 +11827,24 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="O89" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -11920,7 +11892,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11935,7 +11907,7 @@
         <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -11949,42 +11921,46 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>445</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12032,22 +12008,22 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>444</v>
+        <v>290</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12061,10 +12037,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12072,10 +12048,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -12087,13 +12063,13 @@
         <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12144,13 +12120,13 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
@@ -12173,10 +12149,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12199,13 +12175,13 @@
         <v>88</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12256,7 +12232,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12285,10 +12261,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12299,7 +12275,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -12308,16 +12284,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>277</v>
+        <v>459</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12368,22 +12344,22 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>278</v>
+        <v>457</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -12397,21 +12373,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -12423,17 +12399,15 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -12482,19 +12456,19 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>85</v>
@@ -12511,14 +12485,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12531,26 +12505,24 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="O95" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
       </c>
@@ -12598,7 +12570,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12613,7 +12585,7 @@
         <v>138</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -12627,42 +12599,46 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>458</v>
+        <v>288</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -12710,22 +12686,22 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>457</v>
+        <v>290</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -12739,10 +12715,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12753,7 +12729,7 @@
         <v>87</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -12765,13 +12741,13 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12822,13 +12798,13 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>80</v>
@@ -12851,10 +12827,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12862,10 +12838,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -12874,16 +12850,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>182</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12934,19 +12910,19 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>278</v>
+        <v>466</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -12963,10 +12939,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12974,10 +12950,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -12989,13 +12965,13 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>134</v>
+        <v>358</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13034,29 +13010,31 @@
         <v>80</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC99" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>282</v>
+        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
@@ -13068,346 +13046,6 @@
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="D100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN102" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-StructureMap.xlsx
+++ b/StructureDefinition-profile-StructureMap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9193569-06:00</t>
+    <t>2026-02-20T11:59:20.9522633-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/StructureMap|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/StructureMap</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,23 +447,23 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>StructureMap.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.versionAlgorithm|0.0.1-snapshot-3}
+    <t>StructureMap.extension:const</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.const}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for StructureMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `StructureMap.versionAlgorithm[x]` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+    <t>Cross-version extension for StructureMap.const from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Definition of a constant value used in the map rules.</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.const` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -476,7 +476,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
 </t>
   </si>
   <si>
@@ -486,26 +486,28 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `StructureMap.copyrightLabel` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
-  </si>
-  <si>
-    <t>StructureMap.extension:const</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.const|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureMap.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `StructureMap.copyrightLabel` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+  </si>
+  <si>
+    <t>StructureMap.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for StructureMap.const from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Definition of a constant value used in the map rules.</t>
-  </si>
-  <si>
-    <t>Element `StructureMap.const` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
+    <t>Cross-version extension for StructureMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureMap.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `StructureMap.versionAlgorithm[x]` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
   </si>
   <si>
     <t>StructureMap.modifierExtension</t>
@@ -900,7 +902,7 @@
     <t>structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.structure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.structure}
 </t>
   </si>
   <si>
@@ -1007,7 +1009,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group}
 </t>
   </si>
   <si>
@@ -2869,7 +2871,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
@@ -3065,7 +3067,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>138</v>
@@ -3101,7 +3103,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3181,7 +3183,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>138</v>

--- a/StructureDefinition-profile-StructureMap.xlsx
+++ b/StructureDefinition-profile-StructureMap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="452">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9522633-06:00</t>
+    <t>2026-02-21T13:36:54.3573525-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/StructureMap</t>
+    <t>http://hl7.org/fhir/StructureDefinition/StructureMap|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,7 +453,7 @@
     <t>const</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.const}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.const|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -468,46 +468,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>StructureMap.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureMap.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureMap.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `StructureMap.copyrightLabel` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
-  </si>
-  <si>
-    <t>StructureMap.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureMap.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureMap.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `StructureMap.versionAlgorithm[x]` has a context of StructureMap based on following the parent source element upwards and mapping to `StructureMap`.</t>
   </si>
   <si>
     <t>StructureMap.modifierExtension</t>
@@ -893,23 +853,13 @@
     <t>StructureMap.structure.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>StructureMap.structure.extension:structure</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.structure}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureMap.structure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `StructureMap.structure` has is mapped to FHIR R4 element `StructureMap.structure`, but has no comparisons.</t>
   </si>
   <si>
     <t>StructureMap.structure.modifierExtension</t>
@@ -1003,25 +953,6 @@
     <t>StructureMap.group.extension</t>
   </si>
   <si>
-    <t>StructureMap.group.extension:group</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureMap.group from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Organizes the mapping into managable chunks for human review/ease of maintenance.</t>
-  </si>
-  <si>
-    <t>Element `StructureMap.group` has is mapped to FHIR R4 element `StructureMap.group`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>StructureMap.group.modifierExtension</t>
   </si>
   <si>
@@ -1086,12 +1017,6 @@
   </si>
   <si>
     <t>StructureMap.group.input.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>StructureMap.group.input.modifierExtension</t>
@@ -1407,6 +1332,23 @@
   </si>
   <si>
     <t>StructureMap.group.rule.target.parameter.extension</t>
+  </si>
+  <si>
+    <t>StructureMap.group.rule.target.parameter.extension:parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureMap.group.rule.target.parameter|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureMap.group.rule.target.parameter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `StructureMap.group.rule.target.parameter` is mapped to FHIR R4 element `StructureMap.group.rule.target.parameter` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `StructureMap.group.rule.dependent.parameter` because `StructureMap.group.rule.dependent.parameter` is defined as a content reference to `StructureMap.group.rule.target.parameter`.</t>
   </si>
   <si>
     <t>StructureMap.group.rule.target.parameter.modifierExtension</t>
@@ -1777,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1786,9 +1728,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.6875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.46875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2974,43 +2916,43 @@
         <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3058,7 +3000,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3073,7 +3015,7 @@
         <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -3087,20 +3029,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>87</v>
@@ -3112,10 +3052,10 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>155</v>
@@ -3126,7 +3066,9 @@
       <c r="N12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3174,28 +3116,28 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3203,14 +3145,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3223,25 +3165,25 @@
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3290,7 +3232,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3302,35 +3244,35 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
@@ -3345,20 +3287,18 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3406,10 +3346,10 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>87</v>
@@ -3424,10 +3364,10 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3435,10 +3375,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3446,10 +3386,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3461,19 +3401,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3522,16 +3462,16 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>99</v>
@@ -3540,21 +3480,21 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3577,7 +3517,7 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>183</v>
@@ -3636,7 +3576,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3657,7 +3597,7 @@
         <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3665,10 +3605,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3685,26 +3625,24 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3728,13 +3666,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3752,7 +3690,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
@@ -3761,7 +3699,7 @@
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
@@ -3770,10 +3708,10 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3781,10 +3719,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3807,18 +3745,20 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3866,7 +3806,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3884,10 +3824,10 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -3895,18 +3835,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>87</v>
@@ -3915,22 +3855,22 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3956,34 +3896,34 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>87</v>
@@ -3998,10 +3938,10 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4009,10 +3949,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4035,19 +3975,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4096,7 +4036,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4114,10 +4054,10 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4125,21 +4065,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4151,16 +4091,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4210,13 +4150,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4228,10 +4168,10 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4239,10 +4179,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4262,23 +4202,21 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4326,7 +4264,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4344,10 +4282,10 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4392,7 +4330,9 @@
       <c r="N23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4458,7 +4398,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4469,10 +4409,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4483,7 +4423,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4492,19 +4432,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4530,13 +4470,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4554,13 +4494,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4572,7 +4512,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4583,10 +4523,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4597,7 +4537,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4606,23 +4546,21 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4670,13 +4608,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4688,32 +4626,32 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4722,21 +4660,21 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4760,13 +4698,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4784,13 +4722,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4808,7 +4746,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27">
@@ -4827,7 +4765,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4836,19 +4774,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4904,7 +4842,7 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -4916,25 +4854,25 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4953,18 +4891,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5012,7 +4948,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5024,31 +4960,31 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5064,19 +5000,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5138,10 +5074,10 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5155,42 +5091,46 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5238,22 +5178,22 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5267,10 +5207,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5278,10 +5218,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5290,16 +5230,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5338,29 +5278,31 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5377,23 +5319,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5402,20 +5342,18 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5440,13 +5378,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5467,16 +5405,16 @@
         <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5493,46 +5431,44 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5580,22 +5516,22 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5609,10 +5545,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5620,7 +5556,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5632,16 +5568,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5692,10 +5628,10 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5721,10 +5657,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5732,10 +5668,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5747,13 +5683,13 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5780,13 +5716,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5804,13 +5740,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -5833,10 +5769,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5844,10 +5780,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5859,17 +5795,15 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5918,13 +5852,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -5947,10 +5881,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5973,13 +5907,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6030,7 +5964,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6042,10 +5976,10 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6059,14 +5993,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6082,18 +6016,20 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6142,7 +6078,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6154,10 +6090,10 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6171,18 +6107,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6191,22 +6127,26 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6254,10 +6194,10 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6266,10 +6206,10 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6283,10 +6223,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6294,7 +6234,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6306,16 +6246,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6366,10 +6306,10 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>87</v>
@@ -6378,10 +6318,10 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6395,10 +6335,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6406,10 +6346,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6418,16 +6358,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6466,29 +6406,31 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6505,14 +6447,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6521,7 +6461,7 @@
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6530,19 +6470,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6568,13 +6508,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -6592,19 +6532,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6621,46 +6561,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6708,22 +6644,22 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6737,10 +6673,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6751,7 +6687,7 @@
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6763,15 +6699,17 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -6820,13 +6758,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -6849,10 +6787,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6872,16 +6810,16 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6932,7 +6870,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6944,10 +6882,10 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -6961,21 +6899,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -6984,19 +6922,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>331</v>
+        <v>150</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7022,13 +6960,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7046,22 +6984,22 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>328</v>
+        <v>270</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7075,42 +7013,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7158,22 +7100,22 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7187,10 +7129,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7201,7 +7143,7 @@
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7213,17 +7155,15 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7272,13 +7212,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7301,10 +7241,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7324,16 +7264,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7384,7 +7324,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7396,10 +7336,10 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7413,21 +7353,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7436,20 +7376,18 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7474,13 +7412,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7498,22 +7436,22 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7527,46 +7465,42 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7614,22 +7548,22 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -7643,10 +7577,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7657,7 +7591,7 @@
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -7669,13 +7603,13 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7726,13 +7660,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -7755,10 +7689,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7778,16 +7712,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>351</v>
+        <v>265</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7838,7 +7772,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7850,10 +7784,10 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7867,21 +7801,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -7890,18 +7824,20 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -7926,13 +7862,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -7950,22 +7886,22 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>352</v>
+        <v>270</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -7979,42 +7915,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8062,22 +8002,22 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8091,10 +8031,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8105,7 +8045,7 @@
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8117,13 +8057,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8174,13 +8114,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8203,10 +8143,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8214,10 +8154,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8226,16 +8166,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8286,22 +8226,22 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -8315,21 +8255,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8341,17 +8281,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8400,19 +8338,19 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>85</v>
@@ -8429,14 +8367,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8449,26 +8387,24 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8516,7 +8452,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8531,7 +8467,7 @@
         <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -8545,42 +8481,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8628,22 +8568,22 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8657,10 +8597,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8671,7 +8611,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8683,13 +8623,13 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8740,13 +8680,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -8769,10 +8709,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8792,16 +8732,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8852,7 +8792,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8864,10 +8804,10 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -8881,21 +8821,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -8904,20 +8844,18 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -8966,22 +8904,22 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -8995,46 +8933,42 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9082,22 +9016,22 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -9111,10 +9045,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9122,7 +9056,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9137,15 +9071,17 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>89</v>
+        <v>365</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9194,10 +9130,10 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -9223,10 +9159,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9249,13 +9185,13 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>378</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9306,7 +9242,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9335,10 +9271,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9361,13 +9297,13 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9394,13 +9330,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9418,7 +9354,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9447,10 +9383,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9473,13 +9409,13 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9530,7 +9466,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9559,10 +9495,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9585,17 +9521,15 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>388</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9644,7 +9578,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9673,10 +9607,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9699,13 +9633,13 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9756,7 +9690,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9785,10 +9719,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9811,15 +9745,17 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -9844,13 +9780,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -9868,7 +9804,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9897,10 +9833,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9911,7 +9847,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -9923,13 +9859,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9980,19 +9916,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10009,10 +9945,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10032,16 +9968,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10092,7 +10028,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10104,10 +10040,10 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10121,21 +10057,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10144,18 +10080,20 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>407</v>
+        <v>268</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10204,22 +10142,22 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10233,44 +10171,46 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>410</v>
+        <v>273</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>411</v>
+        <v>274</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10318,22 +10258,22 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -10347,10 +10287,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10361,7 +10301,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10373,13 +10313,13 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10430,19 +10370,19 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>416</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -10459,10 +10399,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10482,16 +10422,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10518,13 +10458,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -10542,7 +10482,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10554,10 +10494,10 @@
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -10571,21 +10511,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -10594,20 +10534,18 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -10656,22 +10594,22 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>280</v>
+        <v>402</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>80</v>
@@ -10685,46 +10623,42 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>288</v>
+        <v>406</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -10772,22 +10706,22 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>290</v>
+        <v>405</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -10801,10 +10735,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10815,7 +10749,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -10827,13 +10761,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10860,13 +10794,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -10884,13 +10818,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -10913,10 +10847,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10939,13 +10873,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10972,13 +10906,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -10996,7 +10930,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11025,10 +10959,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11051,13 +10985,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11084,13 +11018,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11108,7 +11042,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11137,10 +11071,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11151,7 +11085,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11163,13 +11097,13 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11220,13 +11154,13 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -11249,10 +11183,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11263,7 +11197,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -11272,16 +11206,16 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>432</v>
+        <v>264</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>433</v>
+        <v>265</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11308,13 +11242,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -11332,22 +11266,22 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>431</v>
+        <v>266</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
@@ -11361,10 +11295,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11375,7 +11309,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -11384,16 +11318,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>437</v>
+        <v>133</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>438</v>
+        <v>134</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11432,31 +11366,29 @@
         <v>80</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC85" s="2"/>
       <c r="AD85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>436</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -11473,12 +11405,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="D86" t="s" s="2">
         <v>80</v>
       </c>
@@ -11487,7 +11421,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -11496,18 +11430,20 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -11532,13 +11468,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -11556,19 +11492,19 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>439</v>
+        <v>270</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -11585,14 +11521,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11605,22 +11541,26 @@
         <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>445</v>
+        <v>273</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -11668,7 +11608,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>444</v>
+        <v>275</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11680,10 +11620,10 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -11697,10 +11637,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11708,7 +11648,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>87</v>
@@ -11720,16 +11660,16 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>277</v>
+        <v>435</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11780,10 +11720,10 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>87</v>
@@ -11792,10 +11732,10 @@
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -11809,14 +11749,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11832,20 +11772,18 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -11894,7 +11832,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11906,10 +11844,10 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -11923,14 +11861,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11943,26 +11881,22 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>288</v>
+        <v>440</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12010,7 +11944,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>290</v>
+        <v>439</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12022,10 +11956,10 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>80</v>
@@ -12039,10 +11973,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12050,7 +11984,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>87</v>
@@ -12062,16 +11996,16 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>451</v>
+        <v>170</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>452</v>
+        <v>264</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>453</v>
+        <v>265</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12122,10 +12056,10 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>450</v>
+        <v>266</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>87</v>
@@ -12134,10 +12068,10 @@
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>80</v>
@@ -12151,14 +12085,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12174,18 +12108,20 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>455</v>
+        <v>268</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -12234,7 +12170,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>454</v>
+        <v>270</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12246,10 +12182,10 @@
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -12263,14 +12199,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12283,22 +12219,26 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>458</v>
+        <v>273</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -12346,7 +12286,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12358,10 +12298,10 @@
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -12375,10 +12315,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12386,7 +12326,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
@@ -12398,16 +12338,16 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>276</v>
+        <v>446</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>277</v>
+        <v>447</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12458,10 +12398,10 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>278</v>
+        <v>445</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>87</v>
@@ -12470,10 +12410,10 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>80</v>
@@ -12487,18 +12427,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -12510,20 +12450,18 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -12572,10 +12510,10 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>280</v>
+        <v>448</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -12584,10 +12522,10 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>80</v>
@@ -12601,46 +12539,42 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -12688,22 +12622,22 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>290</v>
+        <v>451</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -12712,342 +12646,6 @@
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN99" t="s" s="2">
         <v>80</v>
       </c>
     </row>
